--- a/students.XLSX
+++ b/students.XLSX
@@ -165,12 +165,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -199,144 +203,144 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>1300</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>1300</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>2500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>3000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>1200</v>
       </c>
     </row>
